--- a/swertres/results_filter_gap_excel_2_18.xlsx
+++ b/swertres/results_filter_gap_excel_2_18.xlsx
@@ -38,7 +38,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00766465"/>
+        <fgColor rgb="00737130"/>
       </patternFill>
     </fill>
   </fills>
